--- a/medicine/Sexualité et sexologie/Private_Spice/Private_Spice.xlsx
+++ b/medicine/Sexualité et sexologie/Private_Spice/Private_Spice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Private Gold, devenue Private Spice, est une ancienne chaîne de télévision pour adultes diffusant des films érotiques. Elle fut détenue par le groupe Playboy et Private Media Group.
-Déclinée en France, Private Gold[1], puis Private Spice, a été disponible sur Canal sur le canal 215, en option.
+Déclinée en France, Private Gold, puis Private Spice, a été disponible sur Canal sur le canal 215, en option.
 Début 2014, la diffusion sur Canal de la chaîne prend fin. La chaîne change de nom peu de temps après pour devenir Private TV.
 </t>
         </is>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
